--- a/CodeSystem-bc-service-type-code-system.xlsx
+++ b/CodeSystem-bc-service-type-code-system.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-21T21:33:06+00:00</t>
+    <t>2023-05-05T19:53:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-service-type-code-system.xlsx
+++ b/CodeSystem-bc-service-type-code-system.xlsx
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-05T19:53:30+00:00</t>
+    <t>2023-06-12T18:37:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -272,10 +272,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/CodeSystem-bc-service-type-code-system.xlsx
+++ b/CodeSystem-bc-service-type-code-system.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-12T18:37:27+00:00</t>
+    <t>2023-06-12T22:10:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-service-type-code-system.xlsx
+++ b/CodeSystem-bc-service-type-code-system.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-12T22:10:20+00:00</t>
+    <t>2023-06-12T22:51:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-service-type-code-system.xlsx
+++ b/CodeSystem-bc-service-type-code-system.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-12T22:51:11+00:00</t>
+    <t>2023-06-22T17:12:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-service-type-code-system.xlsx
+++ b/CodeSystem-bc-service-type-code-system.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-22T17:12:55+00:00</t>
+    <t>2023-08-10T18:02:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-service-type-code-system.xlsx
+++ b/CodeSystem-bc-service-type-code-system.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-10T18:02:33+00:00</t>
+    <t>2023-08-11T20:09:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-service-type-code-system.xlsx
+++ b/CodeSystem-bc-service-type-code-system.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-11T20:09:37+00:00</t>
+    <t>2023-08-17T21:34:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-service-type-code-system.xlsx
+++ b/CodeSystem-bc-service-type-code-system.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-17T21:34:48+00:00</t>
+    <t>2023-08-21T18:39:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-service-type-code-system.xlsx
+++ b/CodeSystem-bc-service-type-code-system.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-21T18:39:03+00:00</t>
+    <t>2023-08-22T18:08:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-service-type-code-system.xlsx
+++ b/CodeSystem-bc-service-type-code-system.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-22T18:08:48+00:00</t>
+    <t>2023-08-22T19:47:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-service-type-code-system.xlsx
+++ b/CodeSystem-bc-service-type-code-system.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-22T19:47:16+00:00</t>
+    <t>2023-08-22T20:07:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-service-type-code-system.xlsx
+++ b/CodeSystem-bc-service-type-code-system.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-22T20:07:10+00:00</t>
+    <t>2023-08-22T20:25:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-service-type-code-system.xlsx
+++ b/CodeSystem-bc-service-type-code-system.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-22T20:25:35+00:00</t>
+    <t>2023-08-22T22:16:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-service-type-code-system.xlsx
+++ b/CodeSystem-bc-service-type-code-system.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-22T22:16:03+00:00</t>
+    <t>2023-08-25T21:39:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-service-type-code-system.xlsx
+++ b/CodeSystem-bc-service-type-code-system.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-25T21:39:06+00:00</t>
+    <t>2023-08-25T21:46:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-service-type-code-system.xlsx
+++ b/CodeSystem-bc-service-type-code-system.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-25T21:46:31+00:00</t>
+    <t>2023-09-06T17:45:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-service-type-code-system.xlsx
+++ b/CodeSystem-bc-service-type-code-system.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-06T17:45:01+00:00</t>
+    <t>2023-09-06T23:35:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-service-type-code-system.xlsx
+++ b/CodeSystem-bc-service-type-code-system.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-06T23:35:56+00:00</t>
+    <t>2023-09-07T20:12:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-service-type-code-system.xlsx
+++ b/CodeSystem-bc-service-type-code-system.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-07T20:12:30+00:00</t>
+    <t>2023-09-07T21:19:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-service-type-code-system.xlsx
+++ b/CodeSystem-bc-service-type-code-system.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-07T21:19:16+00:00</t>
+    <t>2023-09-08T21:32:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-service-type-code-system.xlsx
+++ b/CodeSystem-bc-service-type-code-system.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-08T21:32:00+00:00</t>
+    <t>2023-09-29T19:19:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-service-type-code-system.xlsx
+++ b/CodeSystem-bc-service-type-code-system.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-29T19:19:38+00:00</t>
+    <t>2023-10-03T05:01:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-service-type-code-system.xlsx
+++ b/CodeSystem-bc-service-type-code-system.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-03T05:01:09+00:00</t>
+    <t>2023-10-03T20:58:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-service-type-code-system.xlsx
+++ b/CodeSystem-bc-service-type-code-system.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-03T20:58:36+00:00</t>
+    <t>2023-10-16T19:05:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-service-type-code-system.xlsx
+++ b/CodeSystem-bc-service-type-code-system.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-16T19:05:06+00:00</t>
+    <t>2023-10-18T17:43:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-service-type-code-system.xlsx
+++ b/CodeSystem-bc-service-type-code-system.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-18T17:43:06+00:00</t>
+    <t>2023-10-19T20:14:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-service-type-code-system.xlsx
+++ b/CodeSystem-bc-service-type-code-system.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-19T20:14:51+00:00</t>
+    <t>2023-10-23T19:17:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-service-type-code-system.xlsx
+++ b/CodeSystem-bc-service-type-code-system.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-23T19:17:15+00:00</t>
+    <t>2023-10-26T20:17:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-service-type-code-system.xlsx
+++ b/CodeSystem-bc-service-type-code-system.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-26T20:17:55+00:00</t>
+    <t>2023-10-30T17:17:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-service-type-code-system.xlsx
+++ b/CodeSystem-bc-service-type-code-system.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-30T17:17:37+00:00</t>
+    <t>2023-11-02T16:59:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-service-type-code-system.xlsx
+++ b/CodeSystem-bc-service-type-code-system.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-02T16:59:26+00:00</t>
+    <t>2023-11-07T20:41:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-service-type-code-system.xlsx
+++ b/CodeSystem-bc-service-type-code-system.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-07T20:41:49+00:00</t>
+    <t>2023-11-09T22:35:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-service-type-code-system.xlsx
+++ b/CodeSystem-bc-service-type-code-system.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-09T22:35:19+00:00</t>
+    <t>2024-01-31T21:18:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-service-type-code-system.xlsx
+++ b/CodeSystem-bc-service-type-code-system.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-31T21:18:40+00:00</t>
+    <t>2024-01-31T22:27:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-service-type-code-system.xlsx
+++ b/CodeSystem-bc-service-type-code-system.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-31T22:27:42+00:00</t>
+    <t>2024-02-13T00:30:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-service-type-code-system.xlsx
+++ b/CodeSystem-bc-service-type-code-system.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-13T00:30:38+00:00</t>
+    <t>2024-02-15T18:07:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-service-type-code-system.xlsx
+++ b/CodeSystem-bc-service-type-code-system.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-15T18:07:20+00:00</t>
+    <t>2024-02-22T00:24:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-service-type-code-system.xlsx
+++ b/CodeSystem-bc-service-type-code-system.xlsx
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-22T00:24:28+00:00</t>
+    <t>2024-04-16T19:17:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>BC Ministry of Health (https://www2.gov.bc.ca/gov/content/governments/organizational-structure/ministries-organizations/ministries/health)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/CodeSystem-bc-service-type-code-system.xlsx
+++ b/CodeSystem-bc-service-type-code-system.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-16T19:17:03+00:00</t>
+    <t>2024-04-16T21:05:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-service-type-code-system.xlsx
+++ b/CodeSystem-bc-service-type-code-system.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-16T21:05:39+00:00</t>
+    <t>2024-04-28T01:45:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-service-type-code-system.xlsx
+++ b/CodeSystem-bc-service-type-code-system.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-28T01:45:29+00:00</t>
+    <t>2024-05-14T23:21:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-service-type-code-system.xlsx
+++ b/CodeSystem-bc-service-type-code-system.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-14T23:21:03+00:00</t>
+    <t>2024-05-15T07:20:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-service-type-code-system.xlsx
+++ b/CodeSystem-bc-service-type-code-system.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-15T07:20:40+00:00</t>
+    <t>2024-05-15T07:42:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-service-type-code-system.xlsx
+++ b/CodeSystem-bc-service-type-code-system.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-15T07:42:26+00:00</t>
+    <t>2024-05-31T17:22:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-service-type-code-system.xlsx
+++ b/CodeSystem-bc-service-type-code-system.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T17:22:32+00:00</t>
+    <t>2024-05-31T18:09:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-service-type-code-system.xlsx
+++ b/CodeSystem-bc-service-type-code-system.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T18:09:22+00:00</t>
+    <t>2024-05-31T19:19:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-service-type-code-system.xlsx
+++ b/CodeSystem-bc-service-type-code-system.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T19:19:35+00:00</t>
+    <t>2024-05-31T19:26:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-service-type-code-system.xlsx
+++ b/CodeSystem-bc-service-type-code-system.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T19:26:05+00:00</t>
+    <t>2024-05-31T22:41:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-service-type-code-system.xlsx
+++ b/CodeSystem-bc-service-type-code-system.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T22:41:33+00:00</t>
+    <t>2024-05-31T22:41:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-service-type-code-system.xlsx
+++ b/CodeSystem-bc-service-type-code-system.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T22:41:54+00:00</t>
+    <t>2024-06-10T23:17:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-service-type-code-system.xlsx
+++ b/CodeSystem-bc-service-type-code-system.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-10T23:17:00+00:00</t>
+    <t>2024-06-11T17:15:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-service-type-code-system.xlsx
+++ b/CodeSystem-bc-service-type-code-system.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-11T17:15:14+00:00</t>
+    <t>2024-06-11T17:18:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
